--- a/biology/Botanique/Windsor_Sculpture_Park/Windsor_Sculpture_Park.xlsx
+++ b/biology/Botanique/Windsor_Sculpture_Park/Windsor_Sculpture_Park.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Windsor Sculpture Park (anciennement : Odette Sculpture Park) est un parc de sculptures situé dans la municipalité de Windsor, dans la province d'Ontario, au Canada. Le lieu présente des œuvres d'art contemporain de sculpteurs de la seconde moitié du XXe siècle. Il porte à l'origine le nom de la famille de l'homme d'affaires et philanthrope Louis Lawrence Odette[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Windsor Sculpture Park (anciennement : Odette Sculpture Park) est un parc de sculptures situé dans la municipalité de Windsor, dans la province d'Ontario, au Canada. Le lieu présente des œuvres d'art contemporain de sculpteurs de la seconde moitié du XXe siècle. Il porte à l'origine le nom de la famille de l'homme d'affaires et philanthrope Louis Lawrence Odette,.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Liste des sculptures exposées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Anne, Leo Mol
 Audio Corridor, Ian Lazarus
